--- a/1 Confusion Matrix Master.xlsx
+++ b/1 Confusion Matrix Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\Programming\Python\ExcelWorkbookCombiner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F1DBFE-6BF1-4FFC-A3D6-4B13613948A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8A266F-D8F5-4AFB-8C9F-D10582725E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="765" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,22 +410,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -433,22 +433,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -479,22 +479,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F5">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -502,22 +502,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -528,19 +528,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
